--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC914B7-FB1E-4288-9739-BD07747505A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3112C9-379B-44C4-B4DA-7B7EF4A59CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,8 +1060,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1140,11 +1138,33 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1211,18 +1231,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1259,12 +1267,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}" name="BOM" displayName="BOM" ref="A2:N32" totalsRowShown="0" tableBorderDxfId="6">
-  <autoFilter ref="A2:N32" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}" name="BOM" displayName="BOM" ref="A2:N32" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A2:N32" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{FD010C32-DD3B-4E0B-AEC2-B930FDAB97DD}" name="#"/>
-    <tableColumn id="2" xr3:uid="{9133F820-A280-4597-B1F2-00271B000C07}" name="Generic_x000a_Part Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3ECACEE6-BC20-4AD9-9AFA-12E8A6988BE5}" name="Qty" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FD010C32-DD3B-4E0B-AEC2-B930FDAB97DD}" name="#" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9133F820-A280-4597-B1F2-00271B000C07}" name="Generic_x000a_Part Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3ECACEE6-BC20-4AD9-9AFA-12E8A6988BE5}" name="Qty" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{C1164679-155F-462B-B62F-2375E85F802B}" name="Part Number"/>
     <tableColumn id="5" xr3:uid="{D8632DA6-5CB4-4F2D-96E1-4B1B8F36E21B}" name="Functional Description"/>
     <tableColumn id="6" xr3:uid="{3AFFA4DB-E7ED-4553-8EF7-CC87CF308EA2}" name="Nom_x000a_Value"/>
@@ -1272,12 +1295,12 @@
     <tableColumn id="8" xr3:uid="{79C18DD2-8119-4E22-BF3D-068979001063}" name="Tol_x000a_%"/>
     <tableColumn id="9" xr3:uid="{6539F68B-6C6B-4FB8-936F-FCFB2DAF015E}" name="Main_x000a_Attribute"/>
     <tableColumn id="10" xr3:uid="{E1E52289-51C8-4A40-B13F-E895176EB384}" name="Other_x000a_Attributes"/>
-    <tableColumn id="11" xr3:uid="{41E32A1E-8FF5-4029-9058-DE09386D3831}" name="Package" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{B34EAAD1-E2A0-462D-847D-56C7117260D3}" name="Annual_x000a_Qty" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{41E32A1E-8FF5-4029-9058-DE09386D3831}" name="Package" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{B34EAAD1-E2A0-462D-847D-56C7117260D3}" name="Annual_x000a_Qty" dataDxfId="3">
       <calculatedColumnFormula>IF(C3*$L$1=0, "", C3*$L$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F5838D75-053C-4DB4-B67B-B4ABDEA5C576}" name="$ Cost Each_x000a_@ Annual Qty" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{50553DA7-9274-428D-90D1-C28823A54863}" name="$ Part_x000a_Total" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{F5838D75-053C-4DB4-B67B-B4ABDEA5C576}" name="$ Cost Each_x000a_@ Annual Qty" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{50553DA7-9274-428D-90D1-C28823A54863}" name="$ Part_x000a_Total" dataDxfId="6">
       <calculatedColumnFormula>IF(C3 * M3 = 0, "", C3 * M3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1551,7 +1574,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,58 +1604,58 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="49">
         <v>1000</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="N2" s="33" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="7" t="s">
@@ -1649,25 +1672,25 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="40" t="str">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38" t="str">
         <f>IF(C3*$L$1=0, "", C3*$L$1)</f>
         <v/>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42" t="str">
+      <c r="M3" s="39"/>
+      <c r="N3" s="40" t="str">
         <f>IF(C3 * M3 = 0, "", C3 * M3)</f>
         <v/>
       </c>
@@ -1683,25 +1706,25 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47" t="str">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45" t="str">
         <f t="shared" ref="L4:L32" si="0">IF(C4*$L$1=0, "", C4*$L$1)</f>
         <v/>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49" t="str">
+      <c r="M4" s="46"/>
+      <c r="N4" s="47" t="str">
         <f t="shared" ref="N4:N32" si="1">IF(C4 * M4 = 0, "", C4 * M4)</f>
         <v/>
       </c>
@@ -1719,7 +1742,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
@@ -1732,12 +1755,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="22" t="str">
+      <c r="L5" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M5" s="6"/>
-      <c r="N5" s="23" t="str">
+      <c r="N5" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1755,7 +1778,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
@@ -1768,12 +1791,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="22" t="str">
+      <c r="L6" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M6" s="6"/>
-      <c r="N6" s="23" t="str">
+      <c r="N6" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1791,7 +1814,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
@@ -1804,12 +1827,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="22" t="str">
+      <c r="L7" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M7" s="6"/>
-      <c r="N7" s="23" t="str">
+      <c r="N7" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1827,7 +1850,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
@@ -1840,12 +1863,12 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="22" t="str">
+      <c r="L8" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M8" s="6"/>
-      <c r="N8" s="23" t="str">
+      <c r="N8" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1863,7 +1886,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
@@ -1876,12 +1899,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="22" t="str">
+      <c r="L9" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M9" s="6"/>
-      <c r="N9" s="23" t="str">
+      <c r="N9" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1899,7 +1922,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
@@ -1912,12 +1935,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="22" t="str">
+      <c r="L10" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="23" t="str">
+      <c r="N10" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1935,7 +1958,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
@@ -1948,12 +1971,12 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="22" t="str">
+      <c r="L11" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="23" t="str">
+      <c r="N11" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -1971,7 +1994,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
@@ -1984,12 +2007,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="22" t="str">
+      <c r="L12" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="23" t="str">
+      <c r="N12" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2007,7 +2030,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
@@ -2020,12 +2043,12 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="22" t="str">
+      <c r="L13" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="23" t="str">
+      <c r="N13" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2043,7 +2066,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
@@ -2056,12 +2079,12 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="22" t="str">
+      <c r="L14" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M14" s="6"/>
-      <c r="N14" s="23" t="str">
+      <c r="N14" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2079,7 +2102,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
@@ -2092,12 +2115,12 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="22" t="str">
+      <c r="L15" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M15" s="6"/>
-      <c r="N15" s="23" t="str">
+      <c r="N15" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2115,7 +2138,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
@@ -2128,12 +2151,12 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="22" t="str">
+      <c r="L16" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="23" t="str">
+      <c r="N16" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2151,7 +2174,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
@@ -2164,12 +2187,12 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="22" t="str">
+      <c r="L17" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M17" s="6"/>
-      <c r="N17" s="23" t="str">
+      <c r="N17" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2187,7 +2210,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="41">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
@@ -2200,12 +2223,12 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="23" t="str">
+      <c r="N18" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2223,7 +2246,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="41">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
@@ -2236,12 +2259,12 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="22" t="str">
+      <c r="L19" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="23" t="str">
+      <c r="N19" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2259,7 +2282,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="41">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
@@ -2272,12 +2295,12 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="22" t="str">
+      <c r="L20" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="23" t="str">
+      <c r="N20" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2295,7 +2318,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="41">
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
@@ -2308,12 +2331,12 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="22" t="str">
+      <c r="L21" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M21" s="6"/>
-      <c r="N21" s="23" t="str">
+      <c r="N21" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2331,7 +2354,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="41">
         <v>20</v>
       </c>
       <c r="B22" s="3"/>
@@ -2344,12 +2367,12 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="22" t="str">
+      <c r="L22" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="23" t="str">
+      <c r="N22" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2367,7 +2390,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="41">
         <v>21</v>
       </c>
       <c r="B23" s="3"/>
@@ -2380,12 +2403,12 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="22" t="str">
+      <c r="L23" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="23" t="str">
+      <c r="N23" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2403,7 +2426,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="41">
         <v>22</v>
       </c>
       <c r="B24" s="3"/>
@@ -2416,12 +2439,12 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="23" t="str">
+      <c r="N24" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2439,7 +2462,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="41">
         <v>23</v>
       </c>
       <c r="B25" s="3"/>
@@ -2452,12 +2475,12 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="22" t="str">
+      <c r="L25" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M25" s="6"/>
-      <c r="N25" s="23" t="str">
+      <c r="N25" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2475,7 +2498,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="41">
         <v>24</v>
       </c>
       <c r="B26" s="3"/>
@@ -2488,12 +2511,12 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="22" t="str">
+      <c r="L26" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="23" t="str">
+      <c r="N26" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2511,7 +2534,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="41">
         <v>25</v>
       </c>
       <c r="B27" s="3"/>
@@ -2524,12 +2547,12 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="22" t="str">
+      <c r="L27" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="23" t="str">
+      <c r="N27" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2547,7 +2570,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="41">
         <v>26</v>
       </c>
       <c r="B28" s="3"/>
@@ -2560,12 +2583,12 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="22" t="str">
+      <c r="L28" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="23" t="str">
+      <c r="N28" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2583,7 +2606,7 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="41">
         <v>27</v>
       </c>
       <c r="B29" s="3"/>
@@ -2596,12 +2619,12 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="22" t="str">
+      <c r="L29" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="23" t="str">
+      <c r="N29" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2619,7 +2642,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="41">
         <v>28</v>
       </c>
       <c r="B30" s="3"/>
@@ -2632,12 +2655,12 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="22" t="str">
+      <c r="L30" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="23" t="str">
+      <c r="N30" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2655,7 +2678,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="41">
         <v>29</v>
       </c>
       <c r="B31" s="3"/>
@@ -2668,12 +2691,12 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="22" t="str">
+      <c r="L31" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M31" s="6"/>
-      <c r="N31" s="23" t="str">
+      <c r="N31" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2691,7 +2714,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="41">
         <v>30</v>
       </c>
       <c r="B32" s="3"/>
@@ -2704,12 +2727,12 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="22" t="str">
+      <c r="L32" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="23" t="str">
+      <c r="N32" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2755,22 +2778,22 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="25">
         <f>SUM(BOM[$ Part
 Total])</f>
         <v>0</v>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3112C9-379B-44C4-B4DA-7B7EF4A59CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22584BA3-5316-45DA-8E8C-E70600185FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="245">
   <si>
     <t>Qty</t>
   </si>
@@ -803,6 +803,39 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>STM32L432KCU6TR</t>
+  </si>
+  <si>
+    <t>UFQFPN</t>
+  </si>
+  <si>
+    <t>100 nF Capacitor</t>
+  </si>
+  <si>
+    <t>4.7 uF Capacitor</t>
+  </si>
+  <si>
+    <t>10 nF Capacitor</t>
+  </si>
+  <si>
+    <t>1 uF Capacitor</t>
+  </si>
+  <si>
+    <t>GMC10X7R475K10NT</t>
+  </si>
+  <si>
+    <t>C0603C103K8GACTU</t>
+  </si>
+  <si>
+    <t>C0603X104K8RACAUTO</t>
+  </si>
+  <si>
+    <t>C0603X105K8RACAUTO</t>
   </si>
 </sst>
 </file>
@@ -1033,14 +1066,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1064,8 +1092,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1148,21 +1174,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
+        <left style="medium">
           <color indexed="64"/>
-        </right>
+        </left>
+        <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -1172,6 +1206,7 @@
           <bgColor rgb="FFCBA9E5"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1184,14 +1219,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1204,20 +1232,29 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1226,9 +1263,24 @@
         </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1267,7 +1319,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}" name="BOM" displayName="BOM" ref="A2:N32" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}" name="BOM" displayName="BOM" ref="A2:N32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0" tableBorderDxfId="16">
   <autoFilter ref="A2:N32" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1285,22 +1337,22 @@
     <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{FD010C32-DD3B-4E0B-AEC2-B930FDAB97DD}" name="#" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9133F820-A280-4597-B1F2-00271B000C07}" name="Generic_x000a_Part Name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3ECACEE6-BC20-4AD9-9AFA-12E8A6988BE5}" name="Qty" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C1164679-155F-462B-B62F-2375E85F802B}" name="Part Number"/>
-    <tableColumn id="5" xr3:uid="{D8632DA6-5CB4-4F2D-96E1-4B1B8F36E21B}" name="Functional Description"/>
-    <tableColumn id="6" xr3:uid="{3AFFA4DB-E7ED-4553-8EF7-CC87CF308EA2}" name="Nom_x000a_Value"/>
-    <tableColumn id="7" xr3:uid="{AE18D9CB-0C3E-4BBC-8A4A-5C700CF1A4D8}" name="Unit"/>
-    <tableColumn id="8" xr3:uid="{79C18DD2-8119-4E22-BF3D-068979001063}" name="Tol_x000a_%"/>
-    <tableColumn id="9" xr3:uid="{6539F68B-6C6B-4FB8-936F-FCFB2DAF015E}" name="Main_x000a_Attribute"/>
-    <tableColumn id="10" xr3:uid="{E1E52289-51C8-4A40-B13F-E895176EB384}" name="Other_x000a_Attributes"/>
-    <tableColumn id="11" xr3:uid="{41E32A1E-8FF5-4029-9058-DE09386D3831}" name="Package" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FD010C32-DD3B-4E0B-AEC2-B930FDAB97DD}" name="#" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9133F820-A280-4597-B1F2-00271B000C07}" name="Generic_x000a_Part Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3ECACEE6-BC20-4AD9-9AFA-12E8A6988BE5}" name="Qty" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C1164679-155F-462B-B62F-2375E85F802B}" name="Part Number" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D8632DA6-5CB4-4F2D-96E1-4B1B8F36E21B}" name="Functional Description" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{3AFFA4DB-E7ED-4553-8EF7-CC87CF308EA2}" name="Nom_x000a_Value" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{AE18D9CB-0C3E-4BBC-8A4A-5C700CF1A4D8}" name="Unit" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{79C18DD2-8119-4E22-BF3D-068979001063}" name="Tol_x000a_%" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{6539F68B-6C6B-4FB8-936F-FCFB2DAF015E}" name="Main_x000a_Attribute" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E1E52289-51C8-4A40-B13F-E895176EB384}" name="Other_x000a_Attributes" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{41E32A1E-8FF5-4029-9058-DE09386D3831}" name="Package" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{B34EAAD1-E2A0-462D-847D-56C7117260D3}" name="Annual_x000a_Qty" dataDxfId="3">
       <calculatedColumnFormula>IF(C3*$L$1=0, "", C3*$L$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F5838D75-053C-4DB4-B67B-B4ABDEA5C576}" name="$ Cost Each_x000a_@ Annual Qty" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{50553DA7-9274-428D-90D1-C28823A54863}" name="$ Part_x000a_Total" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{F5838D75-053C-4DB4-B67B-B4ABDEA5C576}" name="$ Cost Each_x000a_@ Annual Qty" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{50553DA7-9274-428D-90D1-C28823A54863}" name="$ Part_x000a_Total" dataDxfId="1">
       <calculatedColumnFormula>IF(C3 * M3 = 0, "", C3 * M3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1574,15 +1626,15 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B8" sqref="B8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
     <col min="9" max="10" width="15.7109375" customWidth="1"/>
@@ -1592,2170 +1644,2250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="48" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="49">
+      <c r="L1" s="42">
         <v>1000</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="19"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="str">
+      <c r="B3" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="29">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="31">
         <f>IF(C3*$L$1=0, "", C3*$L$1)</f>
-        <v/>
-      </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="32">
+        <v>3.05</v>
+      </c>
+      <c r="N3" s="33">
         <f>IF(C3 * M3 = 0, "", C3 * M3)</f>
-        <v/>
-      </c>
-      <c r="S3" s="8" t="s">
+        <v>3.05</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="8"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45" t="str">
+      <c r="B4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="36">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="38">
         <f t="shared" ref="L4:L32" si="0">IF(C4*$L$1=0, "", C4*$L$1)</f>
-        <v/>
-      </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47" t="str">
+        <v>3000</v>
+      </c>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40" t="str">
         <f t="shared" ref="N4:N32" si="1">IF(C4 * M4 = 0, "", C4 * M4)</f>
         <v/>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="34">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="20" t="str">
+      <c r="B5" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="34">
+        <v>4.7</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="21" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N5" s="40">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S5" s="8" t="s">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="20" t="str">
+      <c r="B6" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="21" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="V6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="34">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="20" t="str">
+      <c r="B7" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="21" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="20" t="str">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="21" t="str">
+      <c r="M8" s="39"/>
+      <c r="N8" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="V8" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="20" t="str">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="21" t="str">
+      <c r="M9" s="39"/>
+      <c r="N9" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="20" t="str">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="21" t="str">
+      <c r="M10" s="39"/>
+      <c r="N10" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="20" t="str">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="21" t="str">
+      <c r="M11" s="39"/>
+      <c r="N11" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="20" t="str">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="21" t="str">
+      <c r="M12" s="39"/>
+      <c r="N12" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="20" t="str">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="21" t="str">
+      <c r="M13" s="39"/>
+      <c r="N13" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="V13" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="20" t="str">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="21" t="str">
+      <c r="M14" s="39"/>
+      <c r="N14" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="8" t="s">
+      <c r="T14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="V14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="20" t="str">
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="21" t="str">
+      <c r="M15" s="39"/>
+      <c r="N15" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S15" s="8" t="s">
+      <c r="S15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="T15" s="8" t="s">
+      <c r="T15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="8" t="s">
+      <c r="V15" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="20" t="str">
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="21" t="str">
+      <c r="M16" s="39"/>
+      <c r="N16" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="V16" s="8" t="s">
+      <c r="V16" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="34">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="20" t="str">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="21" t="str">
+      <c r="M17" s="39"/>
+      <c r="N17" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="34">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="20" t="str">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="21" t="str">
+      <c r="M18" s="39"/>
+      <c r="N18" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="S18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="V18" s="8" t="s">
+      <c r="V18" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="34">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="20" t="str">
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="21" t="str">
+      <c r="M19" s="39"/>
+      <c r="N19" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="T19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="V19" s="8" t="s">
+      <c r="V19" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="34">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="20" t="str">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="21" t="str">
+      <c r="M20" s="39"/>
+      <c r="N20" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="S20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="34">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="20" t="str">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="21" t="str">
+      <c r="M21" s="39"/>
+      <c r="N21" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="T21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="V21" s="13" t="s">
+      <c r="V21" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="34">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="20" t="str">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="21" t="str">
+      <c r="M22" s="39"/>
+      <c r="N22" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="T22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U22" s="8" t="s">
+      <c r="U22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="V22" s="13" t="s">
+      <c r="V22" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+      <c r="A23" s="34">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="20" t="str">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="21" t="str">
+      <c r="M23" s="39"/>
+      <c r="N23" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S23" s="8" t="s">
+      <c r="S23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="T23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="U23" s="8" t="s">
+      <c r="U23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="V23" s="13" t="s">
+      <c r="V23" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="34">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="20" t="str">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="21" t="str">
+      <c r="M24" s="39"/>
+      <c r="N24" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S24" s="8" t="s">
+      <c r="S24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="T24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="U24" s="8" t="s">
+      <c r="U24" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V24" s="13" t="s">
+      <c r="V24" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="A25" s="34">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="20" t="str">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="21" t="str">
+      <c r="M25" s="39"/>
+      <c r="N25" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="T25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="U25" s="8" t="s">
+      <c r="U25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="V25" s="13" t="s">
+      <c r="V25" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="34">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="20" t="str">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="21" t="str">
+      <c r="M26" s="39"/>
+      <c r="N26" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="T26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="U26" s="8" t="s">
+      <c r="U26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="V26" s="13" t="s">
+      <c r="V26" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="34">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="20" t="str">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="21" t="str">
+      <c r="M27" s="39"/>
+      <c r="N27" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="T27" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="8" t="s">
+      <c r="U27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V27" s="13" t="s">
+      <c r="V27" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
+      <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="20" t="str">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="21" t="str">
+      <c r="M28" s="39"/>
+      <c r="N28" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="T28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="U28" s="8" t="s">
+      <c r="U28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V28" s="13" t="s">
+      <c r="V28" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="20" t="str">
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="21" t="str">
+      <c r="M29" s="39"/>
+      <c r="N29" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="T29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="U29" s="8" t="s">
+      <c r="U29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="V29" s="13" t="s">
+      <c r="V29" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="34">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="20" t="str">
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="21" t="str">
+      <c r="M30" s="39"/>
+      <c r="N30" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T30" s="8" t="s">
+      <c r="T30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U30" s="8" t="s">
+      <c r="U30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="V30" s="13" t="s">
+      <c r="V30" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
+      <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="20" t="str">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="21" t="str">
+      <c r="M31" s="39"/>
+      <c r="N31" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="T31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U31" s="8" t="s">
+      <c r="U31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V31" s="13" t="s">
+      <c r="V31" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="34">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="20" t="str">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="21" t="str">
+      <c r="M32" s="39"/>
+      <c r="N32" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="T32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U32" s="9" t="s">
+      <c r="U32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="13" t="s">
+      <c r="V32" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="S33" s="8" t="s">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="S33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="T33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="9" t="s">
+      <c r="U33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="V33" s="13" t="s">
+      <c r="V33" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="24" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="18">
         <f>SUM(BOM[$ Part
 Total])</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="8" t="s">
+        <v>3.33</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U34" s="9" t="s">
+      <c r="U34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="V34" s="13" t="s">
+      <c r="V34" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S35" s="8" t="s">
+      <c r="S35" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="T35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="U35" s="9" t="s">
+      <c r="U35" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="V35" s="13" t="s">
+      <c r="V35" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S36" s="8" t="s">
+      <c r="S36" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="T36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="U36" s="9" t="s">
+      <c r="U36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V36" s="13" t="s">
+      <c r="V36" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S37" s="8" t="s">
+      <c r="S37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="T37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="U37" s="9" t="s">
+      <c r="U37" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="V37" s="13" t="s">
+      <c r="V37" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S38" s="8" t="s">
+      <c r="S38" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="T38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="U38" s="8" t="s">
+      <c r="U38" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="V38" s="13" t="s">
+      <c r="V38" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S39" s="8" t="s">
+      <c r="S39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="T39" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U39" s="8" t="s">
+      <c r="U39" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="V39" s="13" t="s">
+      <c r="V39" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S40" s="11" t="s">
+      <c r="S40" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="U40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="V40" s="13" t="s">
+      <c r="V40" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S41" s="8" t="s">
+      <c r="S41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T41" s="8" t="s">
+      <c r="T41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U41" s="8" t="s">
+      <c r="U41" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="V41" s="13" t="s">
+      <c r="V41" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S42" s="8" t="s">
+      <c r="S42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T42" s="8" t="s">
+      <c r="T42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="U42" s="8" t="s">
+      <c r="U42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="V42" s="13" t="s">
+      <c r="V42" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S43" s="8" t="s">
+      <c r="S43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="T43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="U43" s="8" t="s">
+      <c r="U43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="V43" s="13" t="s">
+      <c r="V43" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S44" s="8" t="s">
+      <c r="S44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T44" s="8" t="s">
+      <c r="T44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="U44" s="8" t="s">
+      <c r="U44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="V44" s="13" t="s">
+      <c r="V44" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S45" s="8" t="s">
+      <c r="S45" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T45" s="8" t="s">
+      <c r="T45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U45" s="8" t="s">
+      <c r="U45" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="V45" s="13" t="s">
+      <c r="V45" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S46" s="8" t="s">
+      <c r="S46" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T46" s="8" t="s">
+      <c r="T46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="U46" s="8" t="s">
+      <c r="U46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="V46" s="13" t="s">
+      <c r="V46" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S47" s="8" t="s">
+      <c r="S47" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="T47" s="8" t="s">
+      <c r="T47" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U47" s="11" t="s">
+      <c r="U47" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="V47" s="13" t="s">
+      <c r="V47" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S48" s="8" t="s">
+      <c r="S48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T48" s="8" t="s">
+      <c r="T48" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U48" s="11" t="s">
+      <c r="U48" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="V48" s="13" t="s">
+      <c r="V48" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S49" s="8" t="s">
+      <c r="S49" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="T49" s="8" t="s">
+      <c r="T49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="U49" s="11" t="s">
+      <c r="U49" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="V49" s="13" t="s">
+      <c r="V49" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S50" s="8" t="s">
+      <c r="S50" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="T50" s="8" t="s">
+      <c r="T50" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="U50" s="8" t="s">
+      <c r="U50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="V50" s="13" t="s">
+      <c r="V50" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S51" s="8" t="s">
+      <c r="S51" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T51" s="8" t="s">
+      <c r="T51" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="U51" s="8" t="s">
+      <c r="U51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="V51" s="13" t="s">
+      <c r="V51" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="52" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S52" s="8" t="s">
+      <c r="S52" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T52" s="8" t="s">
+      <c r="T52" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U52" s="8" t="s">
+      <c r="U52" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="V52" s="13" t="s">
+      <c r="V52" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="53" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S53" s="8" t="s">
+      <c r="S53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T53" s="8" t="s">
+      <c r="T53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="U53" s="8" t="s">
+      <c r="U53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="V53" s="13" t="s">
+      <c r="V53" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="54" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S54" s="8" t="s">
+      <c r="S54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T54" s="8" t="s">
+      <c r="T54" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="U54" s="8" t="s">
+      <c r="U54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="V54" s="13" t="s">
+      <c r="V54" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="55" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S55" s="14" t="s">
+      <c r="S55" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="T55" s="14" t="s">
+      <c r="T55" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="U55" s="8" t="s">
+      <c r="U55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V55" s="13" t="s">
+      <c r="V55" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="56" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="11" t="s">
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="V56" s="13" t="s">
+      <c r="V56" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S57" s="8" t="s">
+      <c r="S57" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T57" s="8" t="s">
+      <c r="T57" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="U57" s="11" t="s">
+      <c r="U57" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="V57" s="13" t="s">
+      <c r="V57" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S58" s="8" t="s">
+      <c r="S58" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="T58" s="8" t="s">
+      <c r="T58" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="U58" s="11" t="s">
+      <c r="U58" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="V58" s="13" t="s">
+      <c r="V58" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S59" s="8" t="s">
+      <c r="S59" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="T59" s="8" t="s">
+      <c r="T59" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U59" s="11" t="s">
+      <c r="U59" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="V59" s="13" t="s">
+      <c r="V59" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="60" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S60" s="8" t="s">
+      <c r="S60" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="T60" s="8" t="s">
+      <c r="T60" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="U60" s="11" t="s">
+      <c r="U60" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="V60" s="13" t="s">
+      <c r="V60" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="61" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S61" s="8" t="s">
+      <c r="S61" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="T61" s="8" t="s">
+      <c r="T61" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="U61" s="11" t="s">
+      <c r="U61" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="V61" s="13" t="s">
+      <c r="V61" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S62" s="8" t="s">
+      <c r="S62" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="T62" s="8" t="s">
+      <c r="T62" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U62" s="11" t="s">
+      <c r="U62" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="V62" s="13" t="s">
+      <c r="V62" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S63" s="8" t="s">
+      <c r="S63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T63" s="8" t="s">
+      <c r="T63" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="U63" s="11" t="s">
+      <c r="U63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="V63" s="13" t="s">
+      <c r="V63" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="64" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S64" s="8" t="s">
+      <c r="S64" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T64" s="8" t="s">
+      <c r="T64" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U64" s="8" t="s">
+      <c r="U64" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="V64" s="13" t="s">
+      <c r="V64" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S65" s="8" t="s">
+      <c r="S65" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="T65" s="8" t="s">
+      <c r="T65" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="U65" s="8" t="s">
+      <c r="U65" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V65" s="13" t="s">
+      <c r="V65" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S66" s="8" t="s">
+      <c r="S66" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="T66" s="8" t="s">
+      <c r="T66" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="U66" s="8" t="s">
+      <c r="U66" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="V66" s="13" t="s">
+      <c r="V66" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S67" s="8" t="s">
+      <c r="S67" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="T67" s="8" t="s">
+      <c r="T67" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="U67" s="8" t="s">
+      <c r="U67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="V67" s="13" t="s">
+      <c r="V67" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S68" s="8" t="s">
+      <c r="S68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="T68" s="8" t="s">
+      <c r="T68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="U68" s="8" t="s">
+      <c r="U68" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="V68" s="13" t="s">
+      <c r="V68" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="69" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S69" s="8" t="s">
+      <c r="S69" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="T69" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U69" s="8" t="s">
+      <c r="T69" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U69" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V69" s="13" t="s">
+      <c r="V69" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S70" s="8" t="s">
+      <c r="S70" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="T70" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U70" s="8" t="s">
+      <c r="T70" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U70" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="V70" s="13" t="s">
+      <c r="V70" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S71" s="8" t="s">
+      <c r="S71" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="T71" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U71" s="8" t="s">
+      <c r="T71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U71" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="V71" s="13" t="s">
+      <c r="V71" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S72" s="8" t="s">
+      <c r="S72" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T72" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U72" s="8" t="s">
+      <c r="T72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U72" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="V72" s="13" t="s">
+      <c r="V72" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S73" s="8" t="s">
+      <c r="S73" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="T73" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U73" s="8" t="s">
+      <c r="T73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U73" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="V73" s="13" t="s">
+      <c r="V73" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S74" s="8" t="s">
+      <c r="S74" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="T74" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U74" s="8" t="s">
+      <c r="T74" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U74" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="V74" s="13" t="s">
+      <c r="V74" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S75" s="8" t="s">
+      <c r="S75" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="T75" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U75" s="11" t="s">
+      <c r="T75" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U75" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="V75" s="13" t="s">
+      <c r="V75" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="76" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S76" s="8" t="s">
+      <c r="S76" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="T76" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U76" s="8" t="s">
+      <c r="T76" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U76" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="V76" s="13" t="s">
+      <c r="V76" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S77" s="11" t="s">
+      <c r="S77" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="T77" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U77" s="11" t="s">
+      <c r="T77" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U77" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="V77" s="13" t="s">
+      <c r="V77" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="78" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S78" s="11" t="s">
+      <c r="S78" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="T78" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U78" s="8" t="s">
+      <c r="T78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U78" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="V78" s="13" t="s">
+      <c r="V78" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="79" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S79" s="8" t="s">
+      <c r="S79" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="T79" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U79" s="8" t="s">
+      <c r="T79" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U79" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="V79" s="13" t="s">
+      <c r="V79" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="80" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S80" s="8" t="s">
+      <c r="S80" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T80" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U80" s="11" t="s">
+      <c r="T80" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U80" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="V80" s="13" t="s">
+      <c r="V80" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="81" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S81" s="8" t="s">
+      <c r="S81" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="T81" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U81" s="13" t="s">
+      <c r="T81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U81" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="V81" s="13" t="s">
+      <c r="V81" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="82" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S82" s="8" t="s">
+      <c r="S82" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="T82" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U82" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V82" s="13" t="s">
+      <c r="T82" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U82" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="V82" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="83" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S83" s="8" t="s">
+      <c r="S83" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T83" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U83" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V83" s="13" t="s">
+      <c r="T83" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U83" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V83" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="84" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S84" s="8" t="s">
+      <c r="S84" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="T84" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U84" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V84" s="13" t="s">
+      <c r="T84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U84" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V84" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="85" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S85" s="8" t="s">
+      <c r="S85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T85" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U85" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V85" s="13" t="s">
+      <c r="T85" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U85" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V85" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="86" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S86" s="8" t="s">
+      <c r="S86" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="T86" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U86" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V86" s="13" t="s">
+      <c r="T86" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U86" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V86" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="87" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S87" s="8" t="s">
+      <c r="S87" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T87" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U87" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V87" s="13" t="s">
+      <c r="T87" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U87" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V87" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="88" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S88" s="8" t="s">
+      <c r="S88" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="T88" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U88" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V88" s="13" t="s">
+      <c r="T88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U88" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V88" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="89" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S89" s="8" t="s">
+      <c r="S89" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T89" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U89" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V89" s="13" t="s">
+      <c r="T89" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U89" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V89" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="90" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S90" s="8" t="s">
+      <c r="S90" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="T90" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U90" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V90" s="13" t="s">
+      <c r="T90" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U90" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V90" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S91" s="8" t="s">
+      <c r="S91" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T91" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U91" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V91" s="13" t="s">
+      <c r="T91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U91" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V91" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S92" s="8" t="s">
+      <c r="S92" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="T92" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U92" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V92" s="13" t="s">
+      <c r="T92" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U92" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V92" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="93" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S93" s="8" t="s">
+      <c r="S93" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="T93" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U93" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V93" s="13" t="s">
+      <c r="T93" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U93" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V93" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="94" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S94" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T94" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U94" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V94" s="13" t="s">
+      <c r="S94" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T94" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U94" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V94" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="95" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S95" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T95" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U95" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V95" s="13" t="s">
+      <c r="S95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U95" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V95" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S96" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T96" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U96" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V96" s="13" t="s">
+      <c r="S96" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T96" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U96" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V96" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="97" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S97" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T97" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U97" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V97" s="13" t="s">
+      <c r="S97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V97" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="98" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S98" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T98" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U98" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V98" s="13" t="s">
+      <c r="S98" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T98" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U98" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V98" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="99" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S99" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T99" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U99" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V99" s="13" t="s">
+      <c r="S99" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T99" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U99" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V99" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="100" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S100" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T100" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U100" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V100" s="13" t="s">
+      <c r="S100" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T100" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U100" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V100" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="101" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S101" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T101" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U101" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V101" s="13" t="s">
+      <c r="S101" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T101" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U101" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V101" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="102" spans="19:22" x14ac:dyDescent="0.25">
-      <c r="S102" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="T102" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="U102" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="V102" s="13" t="s">
+      <c r="S102" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T102" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="U102" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V102" s="8" t="s">
         <v>89</v>
       </c>
     </row>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22584BA3-5316-45DA-8E8C-E70600185FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22B4EB-5F2F-438C-BAED-ABCC4AD1D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="247">
   <si>
     <t>Qty</t>
   </si>
@@ -836,6 +836,12 @@
   </si>
   <si>
     <t>C0603X105K8RACAUTO</t>
+  </si>
+  <si>
+    <t>Temperature Sensor</t>
+  </si>
+  <si>
+    <t>MCP9700T-E/TT</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1632,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1785,7 @@
         <v>237</v>
       </c>
       <c r="C4" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>243</v>
@@ -1803,12 +1809,14 @@
       </c>
       <c r="L4" s="38">
         <f t="shared" ref="L4:L32" si="0">IF(C4*$L$1=0, "", C4*$L$1)</f>
-        <v>3000</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40" t="str">
+        <v>5000</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0.62</v>
+      </c>
+      <c r="N4" s="40">
         <f t="shared" ref="N4:N32" si="1">IF(C4 * M4 = 0, "", C4 * M4)</f>
-        <v/>
+        <v>3.1</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>22</v>
@@ -1911,10 +1919,12 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40" t="str">
+      <c r="M6" s="39">
+        <v>0.54</v>
+      </c>
+      <c r="N6" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.54</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>30</v>
@@ -1963,10 +1973,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40" t="str">
+      <c r="M7" s="39">
+        <v>0.82</v>
+      </c>
+      <c r="N7" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1.64</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>34</v>
@@ -1985,24 +1997,38 @@
       <c r="A8" s="34">
         <v>6</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="I8" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="J8" s="34"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38" t="str">
+      <c r="K8" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.4</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>37</v>
@@ -2928,7 +2954,7 @@
       <c r="N34" s="18">
         <f>SUM(BOM[$ Part
 Total])</f>
-        <v>3.33</v>
+        <v>9.0100000000000016</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>122</v>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22B4EB-5F2F-438C-BAED-ABCC4AD1D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C77C1C-DA94-47A8-B239-540BA09EBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="250">
   <si>
     <t>Qty</t>
   </si>
@@ -842,6 +842,15 @@
   </si>
   <si>
     <t>MCP9700T-E/TT</t>
+  </si>
+  <si>
+    <t>Switching Regulator</t>
+  </si>
+  <si>
+    <t>Tactile Switch</t>
+  </si>
+  <si>
+    <t>222AMVBAR</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1641,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1794,7 @@
         <v>237</v>
       </c>
       <c r="C4" s="36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>243</v>
@@ -1809,14 +1818,14 @@
       </c>
       <c r="L4" s="38">
         <f t="shared" ref="L4:L32" si="0">IF(C4*$L$1=0, "", C4*$L$1)</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M4" s="39">
         <v>0.62</v>
       </c>
       <c r="N4" s="40">
         <f t="shared" ref="N4:N32" si="1">IF(C4 * M4 = 0, "", C4 * M4)</f>
-        <v>3.1</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>22</v>
@@ -2047,7 +2056,9 @@
       <c r="A9" s="34">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>247</v>
+      </c>
       <c r="C9" s="36"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -2083,19 +2094,29 @@
       <c r="A10" s="34">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="36">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="34" t="s">
+        <v>178</v>
+      </c>
       <c r="J10" s="34"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="38" t="str">
+      <c r="L10" s="38">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2000</v>
       </c>
       <c r="M10" s="39"/>
       <c r="N10" s="40" t="str">
@@ -2954,7 +2975,7 @@
       <c r="N34" s="18">
         <f>SUM(BOM[$ Part
 Total])</f>
-        <v>9.0100000000000016</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>122</v>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C77C1C-DA94-47A8-B239-540BA09EBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D734E19-57DE-4D3E-81F1-F467A27ADA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="255">
   <si>
     <t>Qty</t>
   </si>
@@ -851,6 +851,21 @@
   </si>
   <si>
     <t>222AMVBAR</t>
+  </si>
+  <si>
+    <t>USB C Recepticle</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A</t>
+  </si>
+  <si>
+    <t>5.1k Resistor</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1656,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,24 +2155,34 @@
       <c r="A11" s="34">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>224</v>
+      </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="38" t="str">
+      <c r="L11" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="N11" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.78</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>48</v>
@@ -2176,24 +2201,40 @@
       <c r="A12" s="34">
         <v>10</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="36">
+        <v>2</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>253</v>
+      </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="J12" s="34"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38" t="str">
+      <c r="K12" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>52</v>
@@ -2975,7 +3016,7 @@
       <c r="N34" s="18">
         <f>SUM(BOM[$ Part
 Total])</f>
-        <v>9.6300000000000008</v>
+        <v>10.61</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>122</v>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D734E19-57DE-4D3E-81F1-F467A27ADA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0161DD-E5E9-4023-8766-CD6BBECF1EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="263">
   <si>
     <t>Qty</t>
   </si>
@@ -844,9 +844,6 @@
     <t>MCP9700T-E/TT</t>
   </si>
   <si>
-    <t>Switching Regulator</t>
-  </si>
-  <si>
     <t>Tactile Switch</t>
   </si>
   <si>
@@ -866,6 +863,33 @@
   </si>
   <si>
     <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>AP62300TWU-7</t>
+  </si>
+  <si>
+    <t>Switching</t>
+  </si>
+  <si>
+    <t>3.3 uH Inductor</t>
+  </si>
+  <si>
+    <t>LQM18PN3R3MGHD</t>
+  </si>
+  <si>
+    <t>10 uF Capacitor</t>
+  </si>
+  <si>
+    <t>150 uF Capacitor</t>
+  </si>
+  <si>
+    <t>865080642006</t>
+  </si>
+  <si>
+    <t>865080657017</t>
+  </si>
+  <si>
+    <t>Electrolytic</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1200,11 +1224,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1260,9 +1297,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1349,7 +1383,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}" name="BOM" displayName="BOM" ref="A2:N32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}" name="BOM" displayName="BOM" ref="A2:N32" totalsRowShown="0" headerRowDxfId="15" dataDxfId="1" tableBorderDxfId="16">
   <autoFilter ref="A2:N32" xr:uid="{5D82E06D-954F-40D1-9CB4-F577311F2944}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1370,19 +1404,19 @@
     <tableColumn id="1" xr3:uid="{FD010C32-DD3B-4E0B-AEC2-B930FDAB97DD}" name="#" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{9133F820-A280-4597-B1F2-00271B000C07}" name="Generic_x000a_Part Name" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{3ECACEE6-BC20-4AD9-9AFA-12E8A6988BE5}" name="Qty" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{C1164679-155F-462B-B62F-2375E85F802B}" name="Part Number" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{D8632DA6-5CB4-4F2D-96E1-4B1B8F36E21B}" name="Functional Description" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{3AFFA4DB-E7ED-4553-8EF7-CC87CF308EA2}" name="Nom_x000a_Value" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{AE18D9CB-0C3E-4BBC-8A4A-5C700CF1A4D8}" name="Unit" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{79C18DD2-8119-4E22-BF3D-068979001063}" name="Tol_x000a_%" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{6539F68B-6C6B-4FB8-936F-FCFB2DAF015E}" name="Main_x000a_Attribute" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E1E52289-51C8-4A40-B13F-E895176EB384}" name="Other_x000a_Attributes" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{41E32A1E-8FF5-4029-9058-DE09386D3831}" name="Package" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{B34EAAD1-E2A0-462D-847D-56C7117260D3}" name="Annual_x000a_Qty" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{C1164679-155F-462B-B62F-2375E85F802B}" name="Part Number" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D8632DA6-5CB4-4F2D-96E1-4B1B8F36E21B}" name="Functional Description" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3AFFA4DB-E7ED-4553-8EF7-CC87CF308EA2}" name="Nom_x000a_Value" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{AE18D9CB-0C3E-4BBC-8A4A-5C700CF1A4D8}" name="Unit" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{79C18DD2-8119-4E22-BF3D-068979001063}" name="Tol_x000a_%" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{6539F68B-6C6B-4FB8-936F-FCFB2DAF015E}" name="Main_x000a_Attribute" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{E1E52289-51C8-4A40-B13F-E895176EB384}" name="Other_x000a_Attributes" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{41E32A1E-8FF5-4029-9058-DE09386D3831}" name="Package" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{B34EAAD1-E2A0-462D-847D-56C7117260D3}" name="Annual_x000a_Qty" dataDxfId="4">
       <calculatedColumnFormula>IF(C3*$L$1=0, "", C3*$L$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F5838D75-053C-4DB4-B67B-B4ABDEA5C576}" name="$ Cost Each_x000a_@ Annual Qty" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{50553DA7-9274-428D-90D1-C28823A54863}" name="$ Part_x000a_Total" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{F5838D75-053C-4DB4-B67B-B4ABDEA5C576}" name="$ Cost Each_x000a_@ Annual Qty" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{50553DA7-9274-428D-90D1-C28823A54863}" name="$ Part_x000a_Total" dataDxfId="2">
       <calculatedColumnFormula>IF(C3 * M3 = 0, "", C3 * M3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1656,7 +1690,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1797,7 @@
       <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="43" t="s">
         <v>235</v>
       </c>
       <c r="E3" s="27" t="s">
@@ -1811,7 +1845,7 @@
       <c r="C4" s="36">
         <v>6</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="44" t="s">
         <v>243</v>
       </c>
       <c r="E4" s="34" t="s">
@@ -1865,7 +1899,7 @@
       <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="44" t="s">
         <v>241</v>
       </c>
       <c r="E5" s="34" t="s">
@@ -1919,7 +1953,7 @@
       <c r="C6" s="36">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="44" t="s">
         <v>242</v>
       </c>
       <c r="E6" s="34" t="s">
@@ -1973,7 +2007,7 @@
       <c r="C7" s="36">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="44" t="s">
         <v>244</v>
       </c>
       <c r="E7" s="34" t="s">
@@ -2022,37 +2056,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>246</v>
+        <v>2</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>248</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="J8" s="34"/>
-      <c r="K8" s="37" t="s">
-        <v>133</v>
-      </c>
+      <c r="K8" s="37"/>
       <c r="L8" s="38">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="39">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="N8" s="40">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>37</v>
@@ -2072,25 +2104,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+        <v>111</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>111</v>
+      </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I9" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="38">
+        <f>IF(C9*$L$1=0, "", C9*$L$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="M9" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="N9" s="40">
+        <f>IF(C9 * M9 = 0, "", C9 * M9)</f>
+        <v>0.3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>40</v>
@@ -2110,33 +2156,41 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C10" s="36">
-        <v>2</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>249</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>257</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="J10" s="34"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="37" t="s">
+        <v>121</v>
+      </c>
       <c r="L10" s="38">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="M10" s="39"/>
-      <c r="N10" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(C10*$L$1=0, "", C10*$L$1)</f>
+        <v>1000</v>
+      </c>
+      <c r="M10" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="40">
+        <f>IF(C10 * M10 = 0, "", C10 * M10)</f>
+        <v>0.2</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>44</v>
@@ -2156,33 +2210,41 @@
         <v>9</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C11" s="36">
         <v>1</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>251</v>
+      <c r="D11" s="45" t="s">
+        <v>260</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="34">
+        <v>10</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="I11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>262</v>
+      </c>
       <c r="K11" s="37"/>
       <c r="L11" s="38">
-        <f t="shared" si="0"/>
+        <f>IF(C11*$L$1=0, "", C11*$L$1)</f>
         <v>1000</v>
       </c>
       <c r="M11" s="39">
-        <v>0.78</v>
+        <v>0.2</v>
       </c>
       <c r="N11" s="40">
-        <f t="shared" si="1"/>
-        <v>0.78</v>
+        <f>IF(C11 * M11 = 0, "", C11 * M11)</f>
+        <v>0.2</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>48</v>
@@ -2202,39 +2264,41 @@
         <v>10</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>254</v>
+      <c r="D12" s="45" t="s">
+        <v>261</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="34"/>
+        <v>26</v>
+      </c>
+      <c r="F12" s="34">
+        <v>150</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="37" t="s">
-        <v>121</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="K12" s="37"/>
       <c r="L12" s="38">
-        <f t="shared" si="0"/>
+        <f>IF(C12*$L$1=0, "", C12*$L$1)</f>
         <v>2000</v>
       </c>
       <c r="M12" s="39">
-        <v>0.1</v>
+        <v>0.91</v>
       </c>
       <c r="N12" s="40">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f>IF(C12 * M12 = 0, "", C12 * M12)</f>
+        <v>1.82</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>52</v>
@@ -2255,7 +2319,7 @@
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
-      <c r="D13" s="34"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -2291,7 +2355,7 @@
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
-      <c r="D14" s="34"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -2327,7 +2391,7 @@
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
-      <c r="D15" s="34"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -2363,7 +2427,7 @@
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="34"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -2399,7 +2463,7 @@
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="34"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -2435,7 +2499,7 @@
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="34"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2471,7 +2535,7 @@
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2507,7 +2571,7 @@
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="36"/>
-      <c r="D20" s="34"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -2543,7 +2607,7 @@
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="36"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -2579,7 +2643,7 @@
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="36"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -2615,7 +2679,7 @@
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -2651,7 +2715,7 @@
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
@@ -2687,7 +2751,7 @@
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -2723,7 +2787,7 @@
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -2759,7 +2823,7 @@
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -2793,24 +2857,34 @@
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="B28" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>224</v>
+      </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="38" t="str">
+      <c r="L28" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="N28" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.78</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>108</v>
@@ -2829,24 +2903,40 @@
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+      <c r="B29" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="36">
+        <v>2</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>252</v>
+      </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="I29" s="34" t="s">
+        <v>27</v>
+      </c>
       <c r="J29" s="34"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38" t="str">
+      <c r="K29" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40" t="str">
+        <v>2000</v>
+      </c>
+      <c r="M29" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>111</v>
@@ -2867,7 +2957,7 @@
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="36"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -2901,24 +2991,36 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38" t="str">
+      <c r="K31" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40" t="str">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="N31" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.4</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>117</v>
@@ -2939,7 +3041,7 @@
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -3016,7 +3118,7 @@
       <c r="N34" s="18">
         <f>SUM(BOM[$ Part
 Total])</f>
-        <v>10.61</v>
+        <v>13.569999999999999</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>122</v>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Engineering Projects\Embedded Sensor Interface with FreeRTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0161DD-E5E9-4023-8766-CD6BBECF1EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A7F205-3FAD-4A66-BC14-44A5CB7470D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="266">
   <si>
     <t>Qty</t>
   </si>
@@ -841,9 +841,6 @@
     <t>Temperature Sensor</t>
   </si>
   <si>
-    <t>MCP9700T-E/TT</t>
-  </si>
-  <si>
     <t>Tactile Switch</t>
   </si>
   <si>
@@ -890,6 +887,18 @@
   </si>
   <si>
     <t>Electrolytic</t>
+  </si>
+  <si>
+    <t>MCP9700AT-E/TT</t>
+  </si>
+  <si>
+    <t>10k Resistor</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10K0</t>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1699,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="L1" s="42">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>15</v>
@@ -1815,7 +1824,7 @@
       </c>
       <c r="L3" s="31">
         <f>IF(C3*$L$1=0, "", C3*$L$1)</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M3" s="32">
         <v>3.05</v>
@@ -1867,7 +1876,7 @@
       </c>
       <c r="L4" s="38">
         <f t="shared" ref="L4:L32" si="0">IF(C4*$L$1=0, "", C4*$L$1)</f>
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="M4" s="39">
         <v>0.62</v>
@@ -1921,7 +1930,7 @@
       </c>
       <c r="L5" s="38">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M5" s="39">
         <v>0.28000000000000003</v>
@@ -1975,7 +1984,7 @@
       </c>
       <c r="L6" s="38">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M6" s="39">
         <v>0.54</v>
@@ -2029,7 +2038,7 @@
       </c>
       <c r="L7" s="38">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="M7" s="39">
         <v>0.82</v>
@@ -2056,13 +2065,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="36">
         <v>2</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>19</v>
@@ -2077,7 +2086,7 @@
       <c r="K8" s="37"/>
       <c r="L8" s="38">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="M8" s="39">
         <v>0.22</v>
@@ -2110,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>111</v>
@@ -2122,14 +2131,14 @@
         <v>195</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="37" t="s">
         <v>133</v>
       </c>
       <c r="L9" s="38">
         <f>IF(C9*$L$1=0, "", C9*$L$1)</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M9" s="39">
         <v>0.3</v>
@@ -2156,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>30</v>
@@ -2183,7 +2192,7 @@
       </c>
       <c r="L10" s="38">
         <f>IF(C10*$L$1=0, "", C10*$L$1)</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M10" s="39">
         <v>0.2</v>
@@ -2210,13 +2219,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" s="36">
         <v>1</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>26</v>
@@ -2232,12 +2241,12 @@
         <v>20</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K11" s="37"/>
       <c r="L11" s="38">
         <f>IF(C11*$L$1=0, "", C11*$L$1)</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M11" s="39">
         <v>0.2</v>
@@ -2264,13 +2273,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>26</v>
@@ -2286,12 +2295,12 @@
         <v>20</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K12" s="37"/>
       <c r="L12" s="38">
         <f>IF(C12*$L$1=0, "", C12*$L$1)</f>
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="M12" s="39">
         <v>0.91</v>
@@ -2317,24 +2326,34 @@
       <c r="A13" s="34">
         <v>11</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>224</v>
+      </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="38" t="str">
+      <c r="L13" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="M13" s="39">
+        <v>0.78</v>
+      </c>
+      <c r="N13" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.78</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>56</v>
@@ -2353,24 +2372,38 @@
       <c r="A14" s="34">
         <v>12</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>251</v>
+      </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="38" t="str">
+      <c r="K14" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40" t="str">
+        <v>2</v>
+      </c>
+      <c r="M14" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.2</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>59</v>
@@ -2389,24 +2422,36 @@
       <c r="A15" s="34">
         <v>13</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38" t="str">
+      <c r="K15" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="M15" s="39">
+        <v>0.48</v>
+      </c>
+      <c r="N15" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.48</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>63</v>
@@ -2425,24 +2470,38 @@
       <c r="A16" s="34">
         <v>14</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>265</v>
+      </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38" t="str">
+      <c r="K16" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="38">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="40" t="str">
+        <v>1</v>
+      </c>
+      <c r="M16" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.1</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>67</v>
@@ -2857,34 +2916,24 @@
       <c r="A28" s="34">
         <v>26</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="36">
-        <v>1</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>224</v>
-      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="38">
+      <c r="L28" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M28" s="39">
-        <v>0.78</v>
-      </c>
-      <c r="N28" s="40">
+        <v/>
+      </c>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>0.78</v>
+        <v/>
       </c>
       <c r="S28" s="3" t="s">
         <v>108</v>
@@ -2903,40 +2952,24 @@
       <c r="A29" s="34">
         <v>27</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="36">
-        <v>2</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>252</v>
-      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
-      <c r="I29" s="34" t="s">
-        <v>27</v>
-      </c>
+      <c r="I29" s="34"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="L29" s="38">
+      <c r="K29" s="37"/>
+      <c r="L29" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="M29" s="39">
-        <v>0.1</v>
-      </c>
-      <c r="N29" s="40">
+        <v/>
+      </c>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v/>
       </c>
       <c r="S29" s="3" t="s">
         <v>111</v>
@@ -2991,36 +3024,24 @@
       <c r="A31" s="34">
         <v>29</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>114</v>
-      </c>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
-      <c r="K31" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="L31" s="38">
+      <c r="K31" s="37"/>
+      <c r="L31" s="38" t="str">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="M31" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="N31" s="40">
+        <v/>
+      </c>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v/>
       </c>
       <c r="S31" s="3" t="s">
         <v>117</v>
@@ -3118,7 +3139,7 @@
       <c r="N34" s="18">
         <f>SUM(BOM[$ Part
 Total])</f>
-        <v>13.569999999999999</v>
+        <v>13.749999999999998</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>122</v>
